--- a/gcam-data-system/energy-data/assumptions/Tables_A10s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A10s.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19700" windowHeight="19340" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19700" windowHeight="19340" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="18" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="A15.roofPV_TechChange.csv" sheetId="19" r:id="rId10"/>
     <sheet name="A16.geo_curves.csv" sheetId="10" r:id="rId11"/>
     <sheet name="A16.EGS_curves.csv" sheetId="17" r:id="rId12"/>
+    <sheet name="A17.tradbio_curves.csv" sheetId="21" r:id="rId13"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="67">
   <si>
     <t>Africa</t>
   </si>
@@ -252,15 +253,6 @@
     </r>
   </si>
   <si>
-    <t>extractioncost.grade1</t>
-  </si>
-  <si>
-    <t>extractioncost.grade2</t>
-  </si>
-  <si>
-    <t>available.grade2</t>
-  </si>
-  <si>
     <t>region_GCAM3</t>
   </si>
 </sst>
@@ -268,11 +260,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -342,7 +329,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="152">
+  <cellStyleXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -495,18 +482,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="11" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="152">
+  <cellStyles count="180">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -582,6 +594,20 @@
     <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -657,6 +683,20 @@
     <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="11"/>
   </cellStyles>
@@ -1058,7 +1098,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1238,7 +1278,7 @@
         <v>traditional biomass</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -1265,7 +1305,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1339,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1354,9 +1394,9 @@
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -1365,19 +1405,16 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1388,20 +1425,17 @@
         <f>VLOOKUP($B2,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
         <v>hydrothermal</v>
       </c>
-      <c r="D2" s="5">
-        <v>7.9475922144000011</v>
-      </c>
-      <c r="E2" s="7">
-        <v>6.4442956640988855E-2</v>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.56909440864871985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1412,20 +1446,17 @@
         <f>VLOOKUP($B3,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
         <v>hydrothermal</v>
       </c>
-      <c r="D3" s="5">
-        <v>0.132305863414861</v>
-      </c>
-      <c r="E3" s="7">
-        <v>6.4442956640988855E-2</v>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.56909440864871985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1436,20 +1467,17 @@
         <f>VLOOKUP($B4,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
         <v>hydrothermal</v>
       </c>
-      <c r="D4" s="5">
-        <v>3.5461774897076341</v>
-      </c>
-      <c r="E4" s="7">
-        <v>6.4442956640988855E-2</v>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.56909440864871985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1460,20 +1488,17 @@
         <f>VLOOKUP($B5,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
         <v>hydrothermal</v>
       </c>
-      <c r="D5" s="5">
-        <v>0.56581704018562406</v>
-      </c>
-      <c r="E5" s="7">
-        <v>6.4442956640988855E-2</v>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.56909440864871985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1484,20 +1509,17 @@
         <f>VLOOKUP($B6,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
         <v>hydrothermal</v>
       </c>
-      <c r="D6" s="5">
-        <v>2.4239694233444582</v>
-      </c>
-      <c r="E6" s="7">
-        <v>6.4442956640988855E-2</v>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.56909440864871985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1508,20 +1530,17 @@
         <f>VLOOKUP($B7,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
         <v>hydrothermal</v>
       </c>
-      <c r="D7" s="5">
-        <v>2.5448316324038047</v>
-      </c>
-      <c r="E7" s="7">
-        <v>6.4442956640988855E-2</v>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.56909440864871985</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1532,20 +1551,17 @@
         <f>VLOOKUP($B8,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
         <v>hydrothermal</v>
       </c>
-      <c r="D8" s="5">
-        <v>1.4140942509868921</v>
-      </c>
-      <c r="E8" s="7">
-        <v>6.4442956640988855E-2</v>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.56909440864871985</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1556,20 +1572,17 @@
         <f>VLOOKUP($B9,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
         <v>hydrothermal</v>
       </c>
-      <c r="D9" s="5">
-        <v>0.56581704018562406</v>
-      </c>
-      <c r="E9" s="7">
-        <v>6.4442956640988855E-2</v>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.56909440864871985</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1580,20 +1593,17 @@
         <f>VLOOKUP($B10,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
         <v>hydrothermal</v>
       </c>
-      <c r="D10" s="5">
-        <v>3.7706191029802683</v>
-      </c>
-      <c r="E10" s="7">
-        <v>6.4442956640988855E-2</v>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.56909440864871985</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1604,20 +1614,17 @@
         <f>VLOOKUP($B11,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
         <v>hydrothermal</v>
       </c>
-      <c r="D11" s="5">
-        <v>10.234537565232159</v>
-      </c>
-      <c r="E11" s="7">
-        <v>6.4442956640988855E-2</v>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.56909440864871985</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1628,20 +1635,17 @@
         <f>VLOOKUP($B12,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
         <v>hydrothermal</v>
       </c>
-      <c r="D12" s="5">
-        <v>5.6554803049932341</v>
-      </c>
-      <c r="E12" s="7">
-        <v>6.4442956640988855E-2</v>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.56909440864871985</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1652,22 +1656,19 @@
         <f>VLOOKUP($B13,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
         <v>hydrothermal</v>
       </c>
-      <c r="D13" s="5">
-        <v>0.70923549794152674</v>
-      </c>
-      <c r="E13" s="7">
-        <v>6.4442956640988855E-2</v>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.56909440864871985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1676,17 +1677,329 @@
         <f>VLOOKUP($B14,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
         <v>hydrothermal</v>
       </c>
-      <c r="D14" s="5">
-        <v>0.56581704018562406</v>
-      </c>
-      <c r="E14" s="7">
-        <v>6.4442956640988855E-2</v>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f>VLOOKUP($B15,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>hydrothermal</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>VLOOKUP($B16,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>hydrothermal</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>7.9475899999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f>VLOOKUP($B17,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>hydrothermal</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>0.13231000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f>VLOOKUP($B18,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>hydrothermal</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>3.5461800000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f>VLOOKUP($B19,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>hydrothermal</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>0.56581999999999999</v>
+      </c>
+      <c r="F19">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="7">
-        <v>0.56909440864871985</v>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f>VLOOKUP($B20,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>hydrothermal</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>2.4239700000000002</v>
+      </c>
+      <c r="F20">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f>VLOOKUP($B21,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>hydrothermal</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21">
+        <v>2.5448300000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f>VLOOKUP($B22,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>hydrothermal</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>1.4140900000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f>VLOOKUP($B23,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>hydrothermal</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>0.56581999999999999</v>
+      </c>
+      <c r="F23">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f>VLOOKUP($B24,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>hydrothermal</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>3.7706200000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f>VLOOKUP($B25,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>hydrothermal</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>10.234540000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f>VLOOKUP($B26,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>hydrothermal</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>5.6554799999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f>VLOOKUP($B27,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>hydrothermal</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>0.70923999999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f>VLOOKUP($B28,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>hydrothermal</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>1E-3</v>
+      </c>
+      <c r="F28">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f>VLOOKUP($B29,Legend!$A$3:$D$14,MATCH(C$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>hydrothermal</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>0.56581999999999999</v>
+      </c>
+      <c r="F29">
+        <v>0.56899999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +2015,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1717,9 +2030,9 @@
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -1728,19 +2041,16 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1750,20 +2060,17 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5">
-        <v>78.460824603599988</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.56909440864871985</v>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1.3517888688066606</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1773,20 +2080,17 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5">
-        <v>3.0176941365851389</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.56909440864871985</v>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1.3517888688066606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1796,20 +2100,17 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5">
-        <v>43.753822510292366</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.56909440864871985</v>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1.3517888688066606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1819,20 +2120,17 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5">
-        <v>5.744182959814375</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.56909440864871985</v>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1.3517888688066606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1842,20 +2140,17 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5">
-        <v>7.0360305766555404</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.56909440864871985</v>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1.3517888688066606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1865,20 +2160,17 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5">
-        <v>25.835168367596197</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.56909440864871985</v>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1.3517888688066606</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1888,20 +2180,17 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5">
-        <v>14.355905749013106</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.56909440864871985</v>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1.3517888688066606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1911,20 +2200,17 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5">
-        <v>5.744182959814375</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.56909440864871985</v>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1.3517888688066606</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1934,20 +2220,17 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5">
-        <v>5.6893808970197313</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.56909440864871985</v>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1.3517888688066606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1957,20 +2240,17 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5">
-        <v>37.065462434767845</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.56909440864871985</v>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1.3517888688066606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1980,20 +2260,17 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5">
-        <v>57.414519695006767</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0.56909440864871985</v>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1.3517888688066606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2003,22 +2280,19 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5">
-        <v>8.7507645020584715</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.56909440864871985</v>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1.3517888688066606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -2026,24 +2300,414 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="5">
-        <v>5.744182959814375</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.56909440864871985</v>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>78.460819999999998</v>
+      </c>
+      <c r="F16">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>3.01769</v>
+      </c>
+      <c r="F17">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>43.753819999999997</v>
+      </c>
+      <c r="F18">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>5.7441800000000001</v>
+      </c>
+      <c r="F19">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="7">
-        <v>1.3517888688066606</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="G15" s="6"/>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>7.0360300000000002</v>
+      </c>
+      <c r="F20">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21">
+        <v>25.835170000000002</v>
+      </c>
+      <c r="F21">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>14.35591</v>
+      </c>
+      <c r="F22">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>5.7441800000000001</v>
+      </c>
+      <c r="F23">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>5.6893799999999999</v>
+      </c>
+      <c r="F24">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>37.065460000000002</v>
+      </c>
+      <c r="F25">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>57.414520000000003</v>
+      </c>
+      <c r="F26">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>8.7507599999999996</v>
+      </c>
+      <c r="F27">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>1E-3</v>
+      </c>
+      <c r="F28">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>5.7441800000000001</v>
+      </c>
+      <c r="F29">
+        <v>1.3520000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>VLOOKUP($A2,Legend!$A$3:$D$14,MATCH(B$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>traditional biomass</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>VLOOKUP($A3,Legend!$A$3:$D$14,MATCH(B$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>traditional biomass</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>VLOOKUP($A4,Legend!$A$3:$D$14,MATCH(B$1,Legend!$A$3:$D$3,0),FALSE)</f>
+        <v>traditional biomass</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2058,7 +2722,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2677,7 +3341,7 @@
       </c>
       <c r="D13" s="4" t="str">
         <f>Legend!D13</f>
-        <v>smooth-renewable-subresource</v>
+        <v>sub-renewable-resource</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +3513,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -10526,8 +11190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="235" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="C1:C1048576 E1:E1048576"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10542,7 +11206,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -10759,7 +11423,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -11086,9 +11750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="C1:C1048576 E1:E1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -11101,7 +11763,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -11429,7 +12091,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11440,7 +12102,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>

--- a/gcam-data-system/energy-data/assumptions/Tables_A10s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A10s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19700" windowHeight="19340" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15720" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="18" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="68">
   <si>
     <t>Africa</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>region_GCAM3</t>
+  </si>
+  <si>
+    <t>capacity.factor</t>
   </si>
 </sst>
 </file>
@@ -511,12 +514,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="11" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1"/>
   </cellXfs>
   <cellStyles count="180">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1381,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2719,10 +2723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2732,17 +2736,17 @@
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -2758,20 +2762,23 @@
       <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="1">
         <v>1975</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1990</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2005</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="str">
         <f>Legend!A4</f>
         <v>coal</v>
@@ -2789,20 +2796,20 @@
       <c r="E4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.4</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.435</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.438</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="str">
         <f>Legend!A5</f>
         <v>crude oil</v>
@@ -2820,20 +2827,20 @@
       <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>1.84</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>1.37</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>1.639</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>3.278</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="str">
         <f>Legend!A6</f>
         <v>natural gas</v>
@@ -2851,20 +2858,20 @@
       <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.65</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.81200000000000006</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>0.98</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="str">
         <f>Legend!A7</f>
         <v>unconventional oil</v>
@@ -2882,9 +2889,6 @@
       <c r="E7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="1">
-        <v>1.81</v>
-      </c>
       <c r="G7" s="1">
         <v>1.81</v>
       </c>
@@ -2894,8 +2898,11 @@
       <c r="I7" s="1">
         <v>1.81</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="1">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="str">
         <f>Legend!A8</f>
         <v>uranium</v>
@@ -2913,20 +2920,20 @@
       <c r="E8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>20</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>25</v>
-      </c>
-      <c r="H8" s="1">
-        <v>35</v>
       </c>
       <c r="I8" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="str">
         <f>Legend!A9</f>
         <v>biomass</v>
@@ -2944,20 +2951,20 @@
       <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="str">
         <f>Legend!A10</f>
         <v>distributed_solar</v>
@@ -2975,9 +2982,6 @@
       <c r="E10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="1">
-        <v>6</v>
-      </c>
       <c r="G10" s="1">
         <v>6</v>
       </c>
@@ -2987,8 +2991,11 @@
       <c r="I10" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="str">
         <f>Legend!A11</f>
         <v>geothermal</v>
@@ -3006,9 +3013,6 @@
       <c r="E11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="1">
-        <v>0.1</v>
-      </c>
       <c r="G11" s="1">
         <v>0.1</v>
       </c>
@@ -3018,8 +3022,11 @@
       <c r="I11" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="4" t="str">
         <f>Legend!A12</f>
         <v>onshore wind resource</v>
@@ -3037,9 +3044,6 @@
       <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="1">
-        <v>0.05</v>
-      </c>
       <c r="G12" s="1">
         <v>0.05</v>
       </c>
@@ -3049,8 +3053,11 @@
       <c r="I12" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="4" t="str">
         <f>Legend!A13</f>
         <v>traditional biomass</v>
@@ -3068,9 +3075,6 @@
       <c r="E13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="1">
-        <v>1.5</v>
-      </c>
       <c r="G13" s="1">
         <v>1.5</v>
       </c>
@@ -3080,8 +3084,11 @@
       <c r="I13" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="str">
         <f>Legend!A14</f>
         <v>global solar resource</v>
@@ -3100,7 +3107,7 @@
         <v>48</v>
       </c>
       <c r="F14" s="1">
-        <v>1E-3</v>
+        <v>0.3</v>
       </c>
       <c r="G14" s="1">
         <v>1E-3</v>
@@ -3109,6 +3116,9 @@
         <v>1E-3</v>
       </c>
       <c r="I14" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="J14" s="1">
         <v>1E-3</v>
       </c>
     </row>

--- a/gcam-data-system/energy-data/assumptions/Tables_A10s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A10s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15720" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="18" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="68">
   <si>
     <t>Africa</t>
   </si>
@@ -263,9 +263,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -332,197 +339,205 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="180">
+  <cellStyleXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="11" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="11" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="180">
+  <cellStyles count="188">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -612,6 +627,10 @@
     <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -701,6 +720,10 @@
     <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="11"/>
   </cellStyles>
@@ -1099,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1290,6 +1313,14 @@
         <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2723,10 +2754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3119,6 +3150,40 @@
         <v>1E-3</v>
       </c>
       <c r="J14" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="str">
+        <f>Legend!A15</f>
+        <v>global solar resource</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>Legend!B15</f>
+        <v>unlimited-resource</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1E-3</v>
+      </c>
+      <c r="H15">
+        <v>1E-3</v>
+      </c>
+      <c r="I15">
+        <v>1E-3</v>
+      </c>
+      <c r="J15">
         <v>1E-3</v>
       </c>
     </row>
@@ -3367,9 +3432,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -3463,33 +3528,17 @@
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="4" t="str">
-        <f>Legend!A8</f>
-        <v>uranium</v>
+        <f>Legend!A9</f>
+        <v>biomass</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>Legend!C8</f>
-        <v>uranium</v>
+        <f>Legend!C9</f>
+        <v>generic waste biomass</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="4" t="str">
-        <f>Legend!A9</f>
-        <v>biomass</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <f>Legend!C9</f>
-        <v>generic waste biomass</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
         <v>0</v>
       </c>
     </row>
@@ -3508,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F365"/>
   <sheetViews>
-    <sheetView topLeftCell="A298" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F298" sqref="F298"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6643,7 +6692,7 @@
         <v>27</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F149">
         <v>0.5</v>
@@ -6664,7 +6713,7 @@
         <v>28</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F150">
         <v>0.55000000000000004</v>
@@ -6685,7 +6734,7 @@
         <v>29</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F151">
         <v>0.92</v>
@@ -6706,7 +6755,7 @@
         <v>30</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F152">
         <v>1.3</v>
@@ -6727,7 +6776,7 @@
         <v>31</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F153">
         <v>2.1</v>
@@ -6748,7 +6797,7 @@
         <v>32</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F154">
         <v>2.7</v>
@@ -6769,7 +6818,7 @@
         <v>33</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F155">
         <v>3.5</v>
@@ -6790,7 +6839,7 @@
         <v>27</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F156">
         <v>0.5</v>
@@ -6811,7 +6860,7 @@
         <v>28</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F157">
         <v>0.55000000000000004</v>
@@ -6832,7 +6881,7 @@
         <v>29</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F158">
         <v>0.92</v>
@@ -6853,7 +6902,7 @@
         <v>30</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F159">
         <v>1.3</v>
@@ -6874,7 +6923,7 @@
         <v>31</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F160">
         <v>2.1</v>
@@ -6895,7 +6944,7 @@
         <v>32</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F161">
         <v>2.7</v>
@@ -6916,7 +6965,7 @@
         <v>33</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F162">
         <v>3.5</v>

--- a/gcam-data-system/energy-data/assumptions/Tables_A10s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A10s.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="69">
   <si>
     <t>Africa</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>capacity.factor</t>
+  </si>
+  <si>
+    <t>limestone</t>
   </si>
 </sst>
 </file>
@@ -529,13 +532,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="11" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="188">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2757,7 +2761,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2797,7 +2801,7 @@
         <v>67</v>
       </c>
       <c r="G3" s="1">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="H3" s="1">
         <v>1990</v>
@@ -3154,9 +3158,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="4" t="str">
-        <f>Legend!A15</f>
-        <v>global solar resource</v>
+      <c r="A15" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B15" s="4" t="str">
         <f>Legend!B15</f>
